--- a/biology/Médecine/Sepsis_sévère/Sepsis_sévère.xlsx
+++ b/biology/Médecine/Sepsis_sévère/Sepsis_sévère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sepsis_s%C3%A9v%C3%A8re</t>
+          <t>Sepsis_sévère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sepsis sévère ou sepsis grave est un état septique défini par un sepsis associé à au moins une des conditions suivantes[1] :
+Le sepsis sévère ou sepsis grave est un état septique défini par un sepsis associé à au moins une des conditions suivantes :
 une hypotension artérielle (avant remplissage) ;
 une lactatémie supérieure à 4 mmol/l ;
 une dysfonction d'organe parmi les suivantes :
@@ -493,7 +505,7 @@
 hépatique : INR supérieur à 4 ou bilirubinémie supérieure à 78 μmol/l (chez l'enfant : transaminases plasmatiques supérieures à 2 fois la normale),
 des plaquettes : thrombocytémie inférieure à 10⁵/mm³ (chez l'enfant : inférieure à 8.10⁴/mm³),
 des fonctions supérieures : score de Glasgow inférieur à 13 (chez l'enfant : inférieur à 11).
-Il est à noter que depuis 2016 la notion de sepsis sévère a été écartée par une conférence de consensus portant sur la définition des états septiques[2].
+Il est à noter que depuis 2016 la notion de sepsis sévère a été écartée par une conférence de consensus portant sur la définition des états septiques.
 </t>
         </is>
       </c>
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sepsis_s%C3%A9v%C3%A8re</t>
+          <t>Sepsis_sévère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +534,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ SFAR, SRLF, Prise en charge hémodynamique de la sepsis grave (nouveau-né exclus), 2005
